--- a/simulation_data/iterative_algorithm/i_error_level_8_percent_water_80.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_8_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.99557656862467</v>
+        <v>88.28309355400714</v>
       </c>
       <c r="D2" t="n">
-        <v>14.79141793025105</v>
+        <v>13.09007630615921</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.77043796560173</v>
+        <v>88.46474263121212</v>
       </c>
       <c r="D3" t="n">
-        <v>13.60142552407911</v>
+        <v>13.09198619081571</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.36949637836121</v>
+        <v>87.29154740517561</v>
       </c>
       <c r="D4" t="n">
-        <v>13.68731879777672</v>
+        <v>12.84887278965934</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.37179430026112</v>
+        <v>87.28806289837922</v>
       </c>
       <c r="D5" t="n">
-        <v>16.38189056054125</v>
+        <v>13.19684918394206</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.95720641486194</v>
+        <v>84.78407428642828</v>
       </c>
       <c r="D6" t="n">
-        <v>16.15937925385616</v>
+        <v>13.9870525308676</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.26716874030286</v>
+        <v>85.2637860015528</v>
       </c>
       <c r="D7" t="n">
-        <v>13.72566726796882</v>
+        <v>12.42495804252509</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.74549431755713</v>
+        <v>83.25763264732205</v>
       </c>
       <c r="D8" t="n">
-        <v>15.00369088928683</v>
+        <v>13.39009140131618</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.32229576418968</v>
+        <v>82.52358948401628</v>
       </c>
       <c r="D9" t="n">
-        <v>14.46166369436588</v>
+        <v>15.34735569610178</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.81088897216225</v>
+        <v>79.995271977507</v>
       </c>
       <c r="D10" t="n">
-        <v>14.07517509902837</v>
+        <v>13.26109288861721</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.60649657084186</v>
+        <v>81.1303167649879</v>
       </c>
       <c r="D11" t="n">
-        <v>13.29459404578034</v>
+        <v>13.22027862836257</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.1358279277447</v>
+        <v>80.96159409890343</v>
       </c>
       <c r="D12" t="n">
-        <v>14.3031952983088</v>
+        <v>13.25598778487514</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.41407124753776</v>
+        <v>79.33679790812694</v>
       </c>
       <c r="D13" t="n">
-        <v>17.12180816795875</v>
+        <v>12.04934477229595</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.42756816832348</v>
+        <v>78.04713348975024</v>
       </c>
       <c r="D14" t="n">
-        <v>16.00181904134891</v>
+        <v>13.78578792592136</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.25817425928236</v>
+        <v>78.71224700837354</v>
       </c>
       <c r="D15" t="n">
-        <v>14.62393894855817</v>
+        <v>14.38987946097703</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>72.62733324169244</v>
+        <v>77.6733604683839</v>
       </c>
       <c r="D16" t="n">
-        <v>14.00751833214396</v>
+        <v>13.65853663158364</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.53318739198606</v>
+        <v>73.81463768328993</v>
       </c>
       <c r="D17" t="n">
-        <v>15.8232425284715</v>
+        <v>12.38905571044653</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.59466352657309</v>
+        <v>74.88356995303134</v>
       </c>
       <c r="D18" t="n">
-        <v>15.17410976718891</v>
+        <v>13.63172401442094</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.57282415242787</v>
+        <v>72.24387923066162</v>
       </c>
       <c r="D19" t="n">
-        <v>14.2246516740051</v>
+        <v>13.39841630468939</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.17201823211461</v>
+        <v>73.57515732349684</v>
       </c>
       <c r="D20" t="n">
-        <v>14.79219918632733</v>
+        <v>13.44321596514021</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.08355623751864</v>
+        <v>71.59621558985785</v>
       </c>
       <c r="D21" t="n">
-        <v>14.48178279616966</v>
+        <v>14.17260785358549</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>67.47317761624525</v>
+        <v>69.99949093744075</v>
       </c>
       <c r="D22" t="n">
-        <v>16.05068577801194</v>
+        <v>10.93054252976351</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.0769766892073</v>
+        <v>69.66242096537928</v>
       </c>
       <c r="D23" t="n">
-        <v>18.16649494039403</v>
+        <v>14.64008330656713</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.10285628411611</v>
+        <v>68.09140338280446</v>
       </c>
       <c r="D24" t="n">
-        <v>13.99387183842925</v>
+        <v>13.04240448494473</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>70.5486387670058</v>
+        <v>66.68709410060744</v>
       </c>
       <c r="D25" t="n">
-        <v>14.34719576926833</v>
+        <v>13.09773689494101</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.98168125466056</v>
+        <v>66.80579814522511</v>
       </c>
       <c r="D26" t="n">
-        <v>14.99048374846505</v>
+        <v>12.63805964349144</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.68163982142347</v>
+        <v>66.24546638683532</v>
       </c>
       <c r="D27" t="n">
-        <v>14.30233022207448</v>
+        <v>14.95182990964913</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.44272050592127</v>
+        <v>66.17853157926186</v>
       </c>
       <c r="D28" t="n">
-        <v>15.17734824980026</v>
+        <v>13.06485785569205</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>60.25486563700451</v>
+        <v>62.04866836225087</v>
       </c>
       <c r="D29" t="n">
-        <v>14.45839118308659</v>
+        <v>14.81018538630516</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.32152309889585</v>
+        <v>62.53715603186448</v>
       </c>
       <c r="D30" t="n">
-        <v>14.61798489053748</v>
+        <v>14.39078007989039</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.22473340527234</v>
+        <v>57.54178840402849</v>
       </c>
       <c r="D31" t="n">
-        <v>13.96513317319769</v>
+        <v>12.76025819481632</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>62.599496613257</v>
+        <v>59.43137380411157</v>
       </c>
       <c r="D32" t="n">
-        <v>13.79914138680395</v>
+        <v>16.18684331093925</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.10899379566448</v>
+        <v>58.59486419969787</v>
       </c>
       <c r="D33" t="n">
-        <v>13.93997510877051</v>
+        <v>13.1207098339267</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.90105619113264</v>
+        <v>57.02041561522446</v>
       </c>
       <c r="D34" t="n">
-        <v>13.39356468305138</v>
+        <v>14.20989218244658</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.66390239357058</v>
+        <v>57.19952086834844</v>
       </c>
       <c r="D35" t="n">
-        <v>12.31537196116445</v>
+        <v>13.95234707533355</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.49153081618611</v>
+        <v>53.97527383369258</v>
       </c>
       <c r="D36" t="n">
-        <v>15.52283591062096</v>
+        <v>16.29716378654175</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.53332804903173</v>
+        <v>54.31285234750084</v>
       </c>
       <c r="D37" t="n">
-        <v>14.4533723403746</v>
+        <v>13.74270700474443</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.85383184029887</v>
+        <v>55.2049312015607</v>
       </c>
       <c r="D38" t="n">
-        <v>13.19302247720826</v>
+        <v>14.08550925508934</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>50.71045872527586</v>
+        <v>52.33192865748534</v>
       </c>
       <c r="D39" t="n">
-        <v>12.73987472077746</v>
+        <v>14.58200751315605</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>54.46043912226806</v>
+        <v>51.43119727947548</v>
       </c>
       <c r="D40" t="n">
-        <v>15.76539552725459</v>
+        <v>14.1584577947669</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.02379420751389</v>
+        <v>50.61090704292084</v>
       </c>
       <c r="D41" t="n">
-        <v>14.68856744063401</v>
+        <v>13.77131944913003</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.81941488192726</v>
+        <v>50.14814936550478</v>
       </c>
       <c r="D42" t="n">
-        <v>14.15283751210737</v>
+        <v>13.22351944962039</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.94737317215704</v>
+        <v>48.5328502012596</v>
       </c>
       <c r="D43" t="n">
-        <v>15.27828272284877</v>
+        <v>13.68555096926402</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.24525188228483</v>
+        <v>45.51571175223606</v>
       </c>
       <c r="D44" t="n">
-        <v>13.71588471168015</v>
+        <v>15.28254064770464</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.45249053563566</v>
+        <v>46.98778632843975</v>
       </c>
       <c r="D45" t="n">
-        <v>15.30815409996011</v>
+        <v>12.87065500459264</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.03335513276595</v>
+        <v>47.7319442630986</v>
       </c>
       <c r="D46" t="n">
-        <v>14.73522094350882</v>
+        <v>15.38687791380601</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.8501479055707</v>
+        <v>46.53768240532316</v>
       </c>
       <c r="D47" t="n">
-        <v>15.12499951931438</v>
+        <v>15.45734582501777</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>41.55566715179688</v>
+        <v>40.66267273653347</v>
       </c>
       <c r="D48" t="n">
-        <v>14.44483366010492</v>
+        <v>14.45044304675138</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.07816737765281</v>
+        <v>42.37543215945166</v>
       </c>
       <c r="D49" t="n">
-        <v>15.18032753450273</v>
+        <v>14.66530609381645</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.6185489233724</v>
+        <v>43.70390046464983</v>
       </c>
       <c r="D50" t="n">
-        <v>14.54422747737841</v>
+        <v>12.23039971607216</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.84073275652892</v>
+        <v>40.28622494261369</v>
       </c>
       <c r="D51" t="n">
-        <v>13.88920777495808</v>
+        <v>13.05942623469456</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.92346679819466</v>
+        <v>42.53072909659506</v>
       </c>
       <c r="D52" t="n">
-        <v>15.29729214174346</v>
+        <v>14.41704912202166</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.51034266296955</v>
+        <v>38.33735656601196</v>
       </c>
       <c r="D53" t="n">
-        <v>13.94883135382455</v>
+        <v>13.2513554941069</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.78067689107041</v>
+        <v>38.29679491535242</v>
       </c>
       <c r="D54" t="n">
-        <v>11.63884982754583</v>
+        <v>14.62797168468699</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.76953604748801</v>
+        <v>38.5199754434675</v>
       </c>
       <c r="D55" t="n">
-        <v>15.47498738771147</v>
+        <v>16.19018274184964</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.91501420323773</v>
+        <v>35.54839317093965</v>
       </c>
       <c r="D56" t="n">
-        <v>14.91781224342875</v>
+        <v>14.899304425766</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.33224722116439</v>
+        <v>37.40336222717442</v>
       </c>
       <c r="D57" t="n">
-        <v>14.30153233502059</v>
+        <v>14.88801117056808</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.60651578478384</v>
+        <v>36.8795242840426</v>
       </c>
       <c r="D58" t="n">
-        <v>12.59975778981221</v>
+        <v>14.08764004892005</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.76615453367978</v>
+        <v>31.28655859673504</v>
       </c>
       <c r="D59" t="n">
-        <v>14.10947486077769</v>
+        <v>14.50697111052364</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.23412642830113</v>
+        <v>33.10492087202424</v>
       </c>
       <c r="D60" t="n">
-        <v>14.57964852610479</v>
+        <v>14.38178153940768</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>28.05633012128638</v>
+        <v>33.03132208587503</v>
       </c>
       <c r="D61" t="n">
-        <v>14.79951770599231</v>
+        <v>15.0681832918578</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.57600966004889</v>
+        <v>30.36767789366057</v>
       </c>
       <c r="D62" t="n">
-        <v>14.09504329177406</v>
+        <v>15.28007774809771</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.6277606077137</v>
+        <v>29.41196613491728</v>
       </c>
       <c r="D63" t="n">
-        <v>15.97292499228028</v>
+        <v>15.34555041408972</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.99519502440507</v>
+        <v>30.24831507070414</v>
       </c>
       <c r="D64" t="n">
-        <v>15.79397091108162</v>
+        <v>12.97860037853393</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.42825501262273</v>
+        <v>27.65385356821533</v>
       </c>
       <c r="D65" t="n">
-        <v>12.89772245453738</v>
+        <v>14.739110297902</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.74004110668727</v>
+        <v>22.91241152097507</v>
       </c>
       <c r="D66" t="n">
-        <v>15.1590862271143</v>
+        <v>16.53267981457627</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.60252331894529</v>
+        <v>22.05486465599273</v>
       </c>
       <c r="D67" t="n">
-        <v>13.62404927850487</v>
+        <v>15.13873339673881</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.66686133781468</v>
+        <v>22.39903796985471</v>
       </c>
       <c r="D68" t="n">
-        <v>13.85865232041665</v>
+        <v>14.5033735382924</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>21.4800082419045</v>
+        <v>22.6498942389454</v>
       </c>
       <c r="D69" t="n">
-        <v>13.2371049958242</v>
+        <v>14.60558114365345</v>
       </c>
     </row>
   </sheetData>
